--- a/Logs_Excel/2025-09-28/Log_Diario_2025-09-28.xlsx
+++ b/Logs_Excel/2025-09-28/Log_Diario_2025-09-28.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Movimentações" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Movimentações'!$A$1:$U$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Movimentações'!$A$1:$V$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -470,27 +470,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
     <col width="18" customWidth="1" min="11" max="11"/>
     <col width="15" customWidth="1" min="12" max="12"/>
     <col width="11" customWidth="1" min="13" max="13"/>
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="16" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="18" customWidth="1" min="17" max="17"/>
     <col width="9" customWidth="1" min="18" max="18"/>
     <col width="9" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="10" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="23" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -599,212 +600,103 @@
           <t>Deadline</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo de Pátio (Dias)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45928.66345669146</v>
+        <v>45928.68519402778</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VTJJ0525123</t>
+          <t>FSFZ4664001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40' REEFER</t>
+          <t>20' DC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vazio</t>
+          <t>Cheio</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Santos LogTech</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>456852</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>852357159</t>
-        </is>
+          <t>Transtec</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>159753</v>
+      </c>
+      <c r="H2" t="n">
+        <v>523641</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Contêiner vazio</t>
-        </is>
-      </c>
+          <t>Japão</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>KGL9482</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>JGLK9284</t>
-        </is>
-      </c>
+          <t>FMI8472</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Leo dias</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>52341741827</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>fernandaoLog</t>
-        </is>
-      </c>
+          <t>Gio</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>52341741827</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>45612</t>
+          <t>500</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1564895</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>123894</t>
+          <t>125893</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>156186</t>
+          <t>Maersk</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1126196841</t>
+          <t>MSCU</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1561894</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45928.66224603009</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>VTJJ0525123</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>40' REEFER</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Vazio</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Santos LogTech</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>456852</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>852357159</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Coréia do Sul</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Contêiner vazio</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>GMI7461</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Rafael</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>52341741827</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>45612</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1564895</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>123894</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>156186</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1126196841</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1561894</t>
-        </is>
-      </c>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U3"/>
-  <conditionalFormatting sqref="A2:U3">
+  <autoFilter ref="A1:V2"/>
+  <conditionalFormatting sqref="A2:V2">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>$B2="Entrada"</formula>
     </cfRule>
